--- a/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29C2114-5AD1-4B90-94EB-E9AFC8F1CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6011151B-3BC4-47B5-A666-EC0CE9C21FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A65B83FE-0E96-400E-ADBA-FEEA147C2DCE}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{293E94F0-44D1-4A8A-8C4C-53F33699834E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>96,38%</t>
   </si>
   <si>
@@ -101,9 +206,6 @@
     <t>97,3%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>3,62%</t>
   </si>
   <si>
@@ -131,64 +233,61 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -215,9 +314,6 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>98,81%</t>
-  </si>
-  <si>
     <t>2,3%</t>
   </si>
   <si>
@@ -236,105 +332,9 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
     <t>96,83%</t>
   </si>
   <si>
@@ -392,6 +392,90 @@
     <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
   </si>
   <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
     <t>96,54%</t>
   </si>
   <si>
@@ -434,46 +518,52 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -530,96 +620,6 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
     <t>97,56%</t>
   </si>
   <si>
@@ -671,6 +671,96 @@
     <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
     <t>98,66%</t>
   </si>
   <si>
@@ -719,52 +809,52 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>98,53%</t>
@@ -821,96 +911,6 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
     <t>97,5%</t>
   </si>
   <si>
@@ -944,6 +944,48 @@
     <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>97,36%</t>
   </si>
   <si>
@@ -992,34 +1034,58 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>97,97%</t>
@@ -1056,72 +1122,6 @@
   </si>
   <si>
     <t>0,52%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
   </si>
   <si>
     <t>97,71%</t>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF300AE7-E484-4075-94EA-39CE21EFBCF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AABDCF6-AA29-4C12-8636-EFAF52264C5E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1679,10 +1679,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>196180</v>
+        <v>21723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1694,85 +1694,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>177373</v>
+        <v>22010</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>56</v>
+      </c>
+      <c r="N4" s="7">
+        <v>43733</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>582</v>
-      </c>
-      <c r="N4" s="7">
-        <v>373554</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>525</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7369</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8411</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>525</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15780</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,54 +1781,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>203549</v>
+        <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>185784</v>
+        <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>606</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>389334</v>
+        <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1840,13 +1840,13 @@
         <v>115991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -1855,13 +1855,13 @@
         <v>102494</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -1870,19 +1870,19 @@
         <v>218485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1891,13 +1891,13 @@
         <v>4671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1906,13 +1906,13 @@
         <v>4502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1921,13 +1921,13 @@
         <v>9173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1942,13 @@
         <v>120662</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -1957,13 +1957,13 @@
         <v>106996</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>343</v>
@@ -1972,117 +1972,117 @@
         <v>227658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>298</v>
+      </c>
+      <c r="D10" s="7">
+        <v>196180</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
         <v>284</v>
       </c>
-      <c r="D10" s="7">
-        <v>192595</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>177373</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>582</v>
+      </c>
+      <c r="N10" s="7">
+        <v>373554</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>254</v>
-      </c>
-      <c r="I10" s="7">
-        <v>193962</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="7">
-        <v>538</v>
-      </c>
-      <c r="N10" s="7">
-        <v>386556</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>4544</v>
+        <v>7369</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8411</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15780</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4202</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8746</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,153 +2091,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>197139</v>
+        <v>203549</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>198164</v>
+        <v>185784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="N12" s="7">
-        <v>395302</v>
+        <v>389334</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7">
-        <v>21723</v>
+        <v>132666</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>208</v>
+      </c>
+      <c r="I13" s="7">
+        <v>125273</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22010</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>413</v>
+      </c>
+      <c r="N13" s="7">
+        <v>257938</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>56</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43733</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>525</v>
+        <v>4440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>525</v>
+        <v>9376</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,150 +2246,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>22248</v>
+        <v>137106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="I15" s="7">
-        <v>22010</v>
+        <v>130208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>57</v>
+        <v>428</v>
       </c>
       <c r="N15" s="7">
-        <v>44258</v>
+        <v>267314</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="D16" s="7">
-        <v>132666</v>
+        <v>192595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>125273</v>
+        <v>193962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>413</v>
+        <v>538</v>
       </c>
       <c r="N16" s="7">
-        <v>257938</v>
+        <v>386556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>4440</v>
+        <v>4544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>4935</v>
+        <v>4202</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>9376</v>
+        <v>8746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>97</v>
@@ -2401,49 +2401,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>137106</v>
+        <v>197139</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="I18" s="7">
-        <v>130208</v>
+        <v>198164</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="N18" s="7">
-        <v>267314</v>
+        <v>395302</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2502,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>33</v>
@@ -2562,13 +2562,13 @@
         <v>680704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>960</v>
@@ -2577,13 +2577,13 @@
         <v>643162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1983</v>
@@ -2592,13 +2592,13 @@
         <v>1323866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B27481-62EA-464F-8F94-E24A433AEFDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051AC3C-8F9D-4525-8A29-B6195B6AF978}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,25 +2737,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>207774</v>
+        <v>22547</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>185749</v>
+        <v>18948</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>119</v>
@@ -2764,19 +2764,19 @@
         <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41495</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="7">
-        <v>587</v>
-      </c>
-      <c r="N4" s="7">
-        <v>393522</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>123</v>
@@ -2785,52 +2785,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1155</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3695</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>5095</v>
+        <v>1849</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3004</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8791</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,54 +2839,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>211469</v>
+        <v>23702</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>190844</v>
+        <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>402313</v>
+        <v>44499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2940,7 +2940,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -3000,13 +3000,13 @@
         <v>118425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>157</v>
@@ -3015,13 +3015,13 @@
         <v>112371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
@@ -3030,117 +3030,117 @@
         <v>230796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="D10" s="7">
-        <v>191739</v>
+        <v>207774</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>287</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185749</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="7">
-        <v>241</v>
-      </c>
-      <c r="I10" s="7">
-        <v>185140</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>587</v>
+      </c>
+      <c r="N10" s="7">
+        <v>393522</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="7">
-        <v>501</v>
-      </c>
-      <c r="N10" s="7">
-        <v>376879</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>4527</v>
+        <v>3695</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5095</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8407</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>14</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8791</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12934</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,153 +3149,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>196266</v>
+        <v>211469</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="I12" s="7">
-        <v>193547</v>
+        <v>190844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>518</v>
+        <v>601</v>
       </c>
       <c r="N12" s="7">
-        <v>389813</v>
+        <v>402313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>22547</v>
+        <v>149804</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="7">
+        <v>221</v>
+      </c>
+      <c r="I13" s="7">
+        <v>141714</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>454</v>
+      </c>
+      <c r="N13" s="7">
+        <v>291518</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18948</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41495</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1155</v>
+        <v>2489</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2944</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1849</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5433</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3004</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,132 +3304,132 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>23702</v>
+        <v>152293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>20797</v>
+        <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>44499</v>
+        <v>296951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>149804</v>
+        <v>191739</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>241</v>
+      </c>
+      <c r="I16" s="7">
+        <v>185140</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="7">
-        <v>221</v>
-      </c>
-      <c r="I16" s="7">
-        <v>141714</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>501</v>
+      </c>
+      <c r="N16" s="7">
+        <v>376879</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M16" s="7">
-        <v>454</v>
-      </c>
-      <c r="N16" s="7">
-        <v>291518</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2489</v>
+        <v>4527</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8407</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2944</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>188</v>
@@ -3438,10 +3438,10 @@
         <v>189</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>5433</v>
+        <v>12934</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>190</v>
@@ -3459,49 +3459,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D18" s="7">
-        <v>152293</v>
+        <v>196266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>144658</v>
+        <v>193547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="N18" s="7">
-        <v>296951</v>
+        <v>389813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3539,7 @@
         <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>1903</v>
@@ -3560,7 +3560,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>23</v>
@@ -3587,7 +3587,7 @@
         <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>205</v>
@@ -3620,13 +3620,13 @@
         <v>702156</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>953</v>
@@ -3635,13 +3635,13 @@
         <v>662216</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1955</v>
@@ -3650,13 +3650,13 @@
         <v>1364372</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103FC3F-8DB7-4E65-8E5C-FA259E121ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0655C5-1D58-4ABA-841F-F56C1A5AFAB5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,100 +3795,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>207863</v>
+        <v>22779</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18684</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="7">
-        <v>303</v>
-      </c>
-      <c r="I4" s="7">
-        <v>189072</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41463</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M4" s="7">
-        <v>610</v>
-      </c>
-      <c r="N4" s="7">
-        <v>396935</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2814</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2799</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4246</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2799</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7060</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,54 +3897,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>210677</v>
+        <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>193318</v>
+        <v>21483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>403995</v>
+        <v>44262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3956,13 +3956,13 @@
         <v>112410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -3971,13 +3971,13 @@
         <v>100103</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>297</v>
@@ -3986,19 +3986,19 @@
         <v>212513</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -4007,13 +4007,13 @@
         <v>3921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4022,13 +4022,13 @@
         <v>3084</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4037,13 +4037,13 @@
         <v>7004</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4058,13 @@
         <v>116331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -4073,13 +4073,13 @@
         <v>103187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -4088,117 +4088,117 @@
         <v>219517</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="D10" s="7">
-        <v>187876</v>
+        <v>207863</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>303</v>
+      </c>
+      <c r="I10" s="7">
+        <v>189072</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="7">
-        <v>254</v>
-      </c>
-      <c r="I10" s="7">
-        <v>187797</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>610</v>
+      </c>
+      <c r="N10" s="7">
+        <v>396935</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="M10" s="7">
-        <v>518</v>
-      </c>
-      <c r="N10" s="7">
-        <v>375672</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2805</v>
+        <v>2814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>4686</v>
+        <v>4246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>7491</v>
+        <v>7060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,153 +4207,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D12" s="7">
-        <v>190681</v>
+        <v>210677</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="I12" s="7">
-        <v>192483</v>
+        <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>383163</v>
+        <v>403995</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="D13" s="7">
-        <v>22779</v>
+        <v>158518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="7">
+        <v>238</v>
+      </c>
+      <c r="I13" s="7">
+        <v>144390</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18684</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>473</v>
+      </c>
+      <c r="N13" s="7">
+        <v>302907</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="M13" s="7">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41463</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3777</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2799</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5687</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2799</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,117 +4362,117 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>22779</v>
+        <v>160427</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>21483</v>
+        <v>148167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="N15" s="7">
-        <v>44262</v>
+        <v>308594</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D16" s="7">
-        <v>158518</v>
+        <v>187876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>254</v>
+      </c>
+      <c r="I16" s="7">
+        <v>187797</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="7">
-        <v>238</v>
-      </c>
-      <c r="I16" s="7">
-        <v>144390</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>518</v>
+      </c>
+      <c r="N16" s="7">
+        <v>375672</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M16" s="7">
-        <v>473</v>
-      </c>
-      <c r="N16" s="7">
-        <v>302907</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1909</v>
+        <v>2805</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>282</v>
@@ -4481,10 +4481,10 @@
         <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>3777</v>
+        <v>4686</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>284</v>
@@ -4496,10 +4496,10 @@
         <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>5687</v>
+        <v>7491</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>287</v>
@@ -4517,49 +4517,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>160427</v>
+        <v>190681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>148167</v>
+        <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>308594</v>
+        <v>383163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
         <v>689446</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>290</v>
@@ -4594,10 +4594,10 @@
         <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>1945</v>
@@ -4606,7 +4606,7 @@
         <v>1329492</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>293</v>
@@ -4618,7 +4618,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>16</v>
@@ -4627,7 +4627,7 @@
         <v>11449</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>295</v>
@@ -4645,10 +4645,10 @@
         <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -4657,7 +4657,7 @@
         <v>30040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>298</v>
@@ -4678,13 +4678,13 @@
         <v>700895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>988</v>
@@ -4693,13 +4693,13 @@
         <v>658637</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1988</v>
@@ -4708,13 +4708,13 @@
         <v>1359532</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAFD46C-2AE0-45F1-813D-5C2629501767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FC347-3D88-4973-96A6-B87676E91FEE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,100 +4853,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>237976</v>
+        <v>11430</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16787</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28217</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" s="7">
-        <v>265</v>
-      </c>
-      <c r="I4" s="7">
-        <v>183749</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M4" s="7">
-        <v>585</v>
-      </c>
-      <c r="N4" s="7">
-        <v>421725</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6462</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>5067</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>11529</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,54 +4955,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>244438</v>
+        <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>188816</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>433254</v>
+        <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5014,13 +5014,13 @@
         <v>109355</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -5029,13 +5029,13 @@
         <v>101649</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>305</v>
@@ -5044,19 +5044,19 @@
         <v>211004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -5065,13 +5065,13 @@
         <v>3037</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5080,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5095,13 +5095,13 @@
         <v>3037</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5116,13 @@
         <v>112392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -5131,13 +5131,13 @@
         <v>101649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -5146,117 +5146,117 @@
         <v>214041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>168459</v>
+        <v>237976</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>168805</v>
+        <v>183749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
-        <v>463</v>
+        <v>585</v>
       </c>
       <c r="N10" s="7">
-        <v>337264</v>
+        <v>421725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>3486</v>
+        <v>6462</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>1242</v>
+        <v>5067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>4728</v>
+        <v>11529</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,153 +5265,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>233</v>
+        <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>171945</v>
+        <v>244438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>170047</v>
+        <v>188816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="N12" s="7">
-        <v>341992</v>
+        <v>433254</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7">
-        <v>11430</v>
+        <v>168365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="7">
+        <v>220</v>
+      </c>
+      <c r="I13" s="7">
+        <v>164714</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M13" s="7">
+        <v>436</v>
+      </c>
+      <c r="N13" s="7">
+        <v>333079</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>45</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28217</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>3292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>4859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,153 +5420,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>11430</v>
+        <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>166281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="N15" s="7">
-        <v>28217</v>
+        <v>337938</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D16" s="7">
-        <v>168365</v>
+        <v>168459</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I16" s="7">
-        <v>164714</v>
+        <v>168805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="N16" s="7">
-        <v>333079</v>
+        <v>337264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>3292</v>
+        <v>3486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1567</v>
+        <v>1242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>4859</v>
+        <v>4728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,49 +5575,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>171657</v>
+        <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I18" s="7">
-        <v>166281</v>
+        <v>170047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>337938</v>
+        <v>341992</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5670,13 @@
         <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>22</v>
@@ -5718,7 +5718,7 @@
         <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>376</v>
@@ -5736,13 +5736,13 @@
         <v>711863</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>921</v>
@@ -5751,13 +5751,13 @@
         <v>643580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1867</v>
@@ -5766,13 +5766,13 @@
         <v>1355442</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6011151B-3BC4-47B5-A666-EC0CE9C21FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59388F95-9F7D-432E-842D-5668463A9A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{293E94F0-44D1-4A8A-8C4C-53F33699834E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80A7540E-9155-43CC-BD5E-F3E19D73513D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="372">
   <si>
     <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>86,19%</t>
+    <t>86,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,1084 +116,1045 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>97,52%</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1165,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1276,39 +1261,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1360,7 +1345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1471,13 +1456,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1486,6 +1464,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1550,19 +1535,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AABDCF6-AA29-4C12-8636-EFAF52264C5E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC59A3DB-530F-47BB-B14B-C5D354CD479E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1679,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>21723</v>
+        <v>525</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1694,13 +1699,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22010</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1709,19 +1714,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>43733</v>
+        <v>525</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,10 +1735,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>525</v>
+        <v>21723</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1745,13 +1750,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1760,19 +1765,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>525</v>
+        <v>43733</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1792,13 @@
         <v>22248</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -1802,13 +1807,13 @@
         <v>22010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -1817,13 +1822,13 @@
         <v>44258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>115991</v>
+        <v>4671</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1849,10 +1854,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>102494</v>
+        <v>4502</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1864,10 +1869,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>218485</v>
+        <v>9173</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1885,10 +1890,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D8" s="7">
-        <v>4671</v>
+        <v>115991</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1900,10 +1905,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>4502</v>
+        <v>102494</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1915,10 +1920,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>9173</v>
+        <v>218485</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1942,13 +1947,13 @@
         <v>120662</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -1957,13 +1962,13 @@
         <v>106996</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>343</v>
@@ -1972,13 +1977,13 @@
         <v>227658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>196180</v>
+        <v>7369</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -2001,37 +2006,37 @@
         <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8411</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
-        <v>284</v>
-      </c>
-      <c r="I10" s="7">
-        <v>177373</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>24</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15780</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="7">
-        <v>582</v>
-      </c>
-      <c r="N10" s="7">
-        <v>373554</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,49 +2045,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="D11" s="7">
-        <v>7369</v>
+        <v>196180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>284</v>
+      </c>
+      <c r="I11" s="7">
+        <v>177373</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8411</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>582</v>
+      </c>
+      <c r="N11" s="7">
+        <v>373554</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="7">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7">
-        <v>15780</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2102,13 @@
         <v>203549</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>297</v>
@@ -2112,13 +2117,13 @@
         <v>185784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>606</v>
@@ -2127,66 +2132,66 @@
         <v>389334</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>132666</v>
+        <v>4440</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4935</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>208</v>
-      </c>
-      <c r="I13" s="7">
-        <v>125273</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9376</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="7">
-        <v>413</v>
-      </c>
-      <c r="N13" s="7">
-        <v>257938</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,49 +2200,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>4440</v>
+        <v>132666</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>208</v>
+      </c>
+      <c r="I14" s="7">
+        <v>125273</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4935</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>413</v>
+      </c>
+      <c r="N14" s="7">
+        <v>257938</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="7">
-        <v>15</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9376</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2257,13 @@
         <v>137106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>216</v>
@@ -2267,13 +2272,13 @@
         <v>130208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>428</v>
@@ -2282,66 +2287,66 @@
         <v>267314</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>284</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>192595</v>
+        <v>4544</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4202</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="7">
-        <v>254</v>
-      </c>
-      <c r="I16" s="7">
-        <v>193962</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8746</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>538</v>
-      </c>
-      <c r="N16" s="7">
-        <v>386556</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,10 +2355,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="D17" s="7">
-        <v>4544</v>
+        <v>192595</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -2365,34 +2370,34 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="I17" s="7">
-        <v>4202</v>
+        <v>193962</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>538</v>
       </c>
       <c r="N17" s="7">
-        <v>8746</v>
+        <v>386556</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2412,13 @@
         <v>197139</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>259</v>
@@ -2422,13 +2427,13 @@
         <v>198164</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>549</v>
@@ -2437,13 +2442,13 @@
         <v>395302</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,49 +2459,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>990</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>659156</v>
+        <v>21548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>927</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>621111</v>
+        <v>22051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>1917</v>
+        <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>1280267</v>
+        <v>43599</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,49 +2510,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>990</v>
       </c>
       <c r="D20" s="7">
-        <v>21548</v>
+        <v>659156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>33</v>
+        <v>927</v>
       </c>
       <c r="I20" s="7">
-        <v>22051</v>
+        <v>621111</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>66</v>
+        <v>1917</v>
       </c>
       <c r="N20" s="7">
-        <v>43599</v>
+        <v>1280267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2567,13 @@
         <v>680704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>960</v>
@@ -2577,13 +2582,13 @@
         <v>643162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1983</v>
@@ -2592,13 +2597,18 @@
         <v>1323866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2619,8 +2629,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051AC3C-8F9D-4525-8A29-B6195B6AF978}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA4206-DE26-414F-BA8D-174D34F9ABA8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2636,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2737,49 +2747,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>22547</v>
+        <v>1155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>18948</v>
+        <v>1849</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>41495</v>
+        <v>3004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,49 +2798,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>1155</v>
+        <v>22547</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>1849</v>
+        <v>18948</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>3004</v>
+        <v>41495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2855,13 @@
         <v>23702</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -2860,13 +2870,13 @@
         <v>20797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -2875,13 +2885,13 @@
         <v>44499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,49 +2902,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>113173</v>
+        <v>5252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>109711</v>
+        <v>2660</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7912</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="7">
-        <v>314</v>
-      </c>
-      <c r="N7" s="7">
-        <v>222884</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,49 +2953,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>5252</v>
+        <v>113173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>2660</v>
+        <v>109711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>7912</v>
+        <v>222884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3010,13 @@
         <v>118425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>157</v>
@@ -3015,13 +3025,13 @@
         <v>112371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
@@ -3030,13 +3040,13 @@
         <v>230796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,49 +3057,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>207774</v>
+        <v>3695</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
-        <v>287</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>185749</v>
+        <v>5095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
-        <v>587</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>393522</v>
+        <v>8791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,49 +3108,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>3695</v>
+        <v>207774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="I11" s="7">
-        <v>5095</v>
+        <v>185749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>587</v>
       </c>
       <c r="N11" s="7">
-        <v>8791</v>
+        <v>393522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3165,13 @@
         <v>211469</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>295</v>
@@ -3170,13 +3180,13 @@
         <v>190844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>601</v>
@@ -3185,66 +3195,66 @@
         <v>402313</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>149804</v>
+        <v>2489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
-        <v>221</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>141714</v>
+        <v>2944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
-        <v>454</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>291518</v>
+        <v>5433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,49 +3263,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>2489</v>
+        <v>149804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>2944</v>
+        <v>141714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="N14" s="7">
-        <v>5433</v>
+        <v>291518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3320,13 @@
         <v>152293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>225</v>
@@ -3325,13 +3335,13 @@
         <v>144658</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -3340,66 +3350,66 @@
         <v>296951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>191739</v>
+        <v>4527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>185140</v>
+        <v>8407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>376879</v>
+        <v>12934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,49 +3418,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="D17" s="7">
-        <v>4527</v>
+        <v>191739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="I17" s="7">
-        <v>8407</v>
+        <v>185140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>501</v>
       </c>
       <c r="N17" s="7">
-        <v>12934</v>
+        <v>376879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3475,13 @@
         <v>196266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -3480,13 +3490,13 @@
         <v>193547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>518</v>
@@ -3495,13 +3505,13 @@
         <v>389813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,49 +3522,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>979</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>685036</v>
+        <v>17120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
-        <v>924</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>641261</v>
+        <v>20955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
-        <v>1903</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>1326297</v>
+        <v>38075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,49 +3573,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>979</v>
       </c>
       <c r="D20" s="7">
-        <v>17120</v>
+        <v>685036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
-        <v>29</v>
+        <v>924</v>
       </c>
       <c r="I20" s="7">
-        <v>20955</v>
+        <v>641261</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
-        <v>52</v>
+        <v>1903</v>
       </c>
       <c r="N20" s="7">
-        <v>38075</v>
+        <v>1326297</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3630,13 @@
         <v>702156</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>953</v>
@@ -3635,13 +3645,13 @@
         <v>662216</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1955</v>
@@ -3650,13 +3660,18 @@
         <v>1364372</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3677,8 +3692,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0655C5-1D58-4ABA-841F-F56C1A5AFAB5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113A76C-49DB-427F-9D5C-1237D00B0D2F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3694,7 +3709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3795,49 +3810,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>22779</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>18684</v>
+        <v>2799</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>41463</v>
+        <v>2799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +3861,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>22779</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
       <c r="I5" s="7">
-        <v>2799</v>
+        <v>18684</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>2799</v>
+        <v>41463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3918,13 @@
         <v>22779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3918,13 +3933,13 @@
         <v>21483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -3933,13 +3948,13 @@
         <v>44262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,49 +3965,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>112410</v>
+        <v>3921</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>100103</v>
+        <v>3084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>212513</v>
+        <v>7004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,49 +4016,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D8" s="7">
-        <v>3921</v>
+        <v>112410</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>3084</v>
+        <v>100103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="N8" s="7">
-        <v>7004</v>
+        <v>212513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4073,13 @@
         <v>116331</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -4073,13 +4088,13 @@
         <v>103187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>306</v>
@@ -4088,13 +4103,13 @@
         <v>219517</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +4120,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>207863</v>
+        <v>2814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>189072</v>
+        <v>4246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
-        <v>610</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>396935</v>
+        <v>7060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +4171,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="D11" s="7">
-        <v>2814</v>
+        <v>207863</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="I11" s="7">
-        <v>4246</v>
+        <v>189072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>610</v>
       </c>
       <c r="N11" s="7">
-        <v>7060</v>
+        <v>396935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4228,13 @@
         <v>210677</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>310</v>
@@ -4228,13 +4243,13 @@
         <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>621</v>
@@ -4243,66 +4258,66 @@
         <v>403995</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>158518</v>
+        <v>1909</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>144390</v>
+        <v>3777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
-        <v>473</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>302907</v>
+        <v>5687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +4326,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>1909</v>
+        <v>158518</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="I14" s="7">
-        <v>3777</v>
+        <v>144390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>473</v>
       </c>
       <c r="N14" s="7">
-        <v>5687</v>
+        <v>302907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4383,13 @@
         <v>160427</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>244</v>
@@ -4383,13 +4398,13 @@
         <v>148167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>482</v>
@@ -4398,66 +4413,66 @@
         <v>308594</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>187876</v>
+        <v>2805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>187797</v>
+        <v>4686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>375672</v>
+        <v>7491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4481,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>2805</v>
+        <v>187876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="I17" s="7">
-        <v>4686</v>
+        <v>187797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="N17" s="7">
-        <v>7491</v>
+        <v>375672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4538,13 @@
         <v>190681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>261</v>
@@ -4538,13 +4553,13 @@
         <v>192483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>529</v>
@@ -4553,13 +4568,13 @@
         <v>383163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,49 +4585,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>984</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>689446</v>
+        <v>11449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="7">
-        <v>961</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>640045</v>
+        <v>18592</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
-        <v>1945</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>1329492</v>
+        <v>30040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4636,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>984</v>
       </c>
       <c r="D20" s="7">
-        <v>11449</v>
+        <v>689446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>27</v>
+        <v>961</v>
       </c>
       <c r="I20" s="7">
-        <v>18592</v>
+        <v>640045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
-        <v>43</v>
+        <v>1945</v>
       </c>
       <c r="N20" s="7">
-        <v>30040</v>
+        <v>1329492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4693,13 @@
         <v>700895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>988</v>
@@ -4693,13 +4708,13 @@
         <v>658637</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1988</v>
@@ -4708,13 +4723,18 @@
         <v>1359532</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4735,8 +4755,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FC347-3D88-4973-96A6-B87676E91FEE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B39295-8877-4777-9792-8E2322888787}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4752,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4853,28 +4873,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11430</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -4883,19 +4903,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>28217</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,28 +4924,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>11430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -4934,19 +4954,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>28217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4981,13 @@
         <v>11430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4976,13 +4996,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4991,13 +5011,13 @@
         <v>28217</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,49 +5028,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>109355</v>
+        <v>3037</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>101649</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
-        <v>305</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>211004</v>
+        <v>3037</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,49 +5079,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>3037</v>
+        <v>109355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>101649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="N8" s="7">
-        <v>3037</v>
+        <v>211004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5136,13 @@
         <v>112392</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -5131,13 +5151,13 @@
         <v>101649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -5146,13 +5166,13 @@
         <v>214041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,49 +5183,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6462</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="7">
-        <v>237976</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>183749</v>
+        <v>5067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>585</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>421725</v>
+        <v>11529</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,28 +5234,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>6462</v>
+        <v>237976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="I11" s="7">
-        <v>5067</v>
+        <v>183749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>326</v>
@@ -5244,19 +5264,19 @@
         <v>327</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>585</v>
       </c>
       <c r="N11" s="7">
-        <v>11529</v>
+        <v>421725</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5291,13 @@
         <v>244438</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>272</v>
@@ -5286,13 +5306,13 @@
         <v>188816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>600</v>
@@ -5301,66 +5321,66 @@
         <v>433254</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>168365</v>
+        <v>3292</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1567</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H13" s="7">
-        <v>220</v>
-      </c>
-      <c r="I13" s="7">
-        <v>164714</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4859</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="M13" s="7">
-        <v>436</v>
-      </c>
-      <c r="N13" s="7">
-        <v>333079</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,49 +5389,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D14" s="7">
-        <v>3292</v>
+        <v>168365</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>220</v>
+      </c>
+      <c r="I14" s="7">
+        <v>164714</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1567</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>436</v>
+      </c>
+      <c r="N14" s="7">
+        <v>333079</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4859</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5446,13 @@
         <v>171657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>223</v>
@@ -5441,13 +5461,13 @@
         <v>166281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>444</v>
@@ -5456,66 +5476,66 @@
         <v>337938</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>228</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>168459</v>
+        <v>3486</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1242</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4728</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H16" s="7">
-        <v>235</v>
-      </c>
-      <c r="I16" s="7">
-        <v>168805</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>463</v>
-      </c>
-      <c r="N16" s="7">
-        <v>337264</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,49 +5544,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="D17" s="7">
-        <v>3486</v>
+        <v>168459</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="7">
+        <v>235</v>
+      </c>
+      <c r="I17" s="7">
+        <v>168805</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7">
+        <v>463</v>
+      </c>
+      <c r="N17" s="7">
+        <v>337264</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1242</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4728</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5601,13 @@
         <v>171945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>236</v>
@@ -5596,13 +5616,13 @@
         <v>170047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>469</v>
@@ -5611,13 +5631,13 @@
         <v>341992</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,49 +5648,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>924</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>695586</v>
+        <v>16277</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7876</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H19" s="7">
-        <v>910</v>
-      </c>
-      <c r="I19" s="7">
-        <v>635704</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>33</v>
+      </c>
+      <c r="N19" s="7">
+        <v>24153</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1834</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1331289</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,49 +5699,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>924</v>
       </c>
       <c r="D20" s="7">
-        <v>16277</v>
+        <v>695586</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="7">
+        <v>910</v>
+      </c>
+      <c r="I20" s="7">
+        <v>635704</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1834</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1331289</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H20" s="7">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7876</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M20" s="7">
-        <v>33</v>
-      </c>
-      <c r="N20" s="7">
-        <v>24153</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5756,13 @@
         <v>711863</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>921</v>
@@ -5751,13 +5771,13 @@
         <v>643580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1867</v>
@@ -5766,13 +5786,18 @@
         <v>1355442</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59388F95-9F7D-432E-842D-5668463A9A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2017E64F-3084-46D1-AA8E-A9776FB51AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80A7540E-9155-43CC-BD5E-F3E19D73513D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E12E9EA4-5094-4E74-9C0D-7F6B6C5632F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="368">
   <si>
     <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,64%</t>
+    <t>12,68%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>97,64%</t>
   </si>
   <si>
-    <t>86,36%</t>
+    <t>87,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,1045 +116,1033 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC59A3DB-530F-47BB-B14B-C5D354CD479E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B8061A-8F1D-412F-890B-684512B46AD4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2006,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2015,13 +2003,13 @@
         <v>8411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2030,13 +2018,13 @@
         <v>15780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,13 +2039,13 @@
         <v>196180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
@@ -2066,13 +2054,13 @@
         <v>177373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -2081,13 +2069,13 @@
         <v>373554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2131,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2155,13 +2143,13 @@
         <v>4440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2170,13 +2158,13 @@
         <v>4935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2185,13 +2173,13 @@
         <v>9376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2194,13 @@
         <v>132666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -2221,13 +2209,13 @@
         <v>125273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -2236,13 +2224,13 @@
         <v>257938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2286,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2310,13 +2298,13 @@
         <v>4544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2325,13 +2313,13 @@
         <v>4202</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2340,13 +2328,13 @@
         <v>8746</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2349,13 @@
         <v>192595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -2376,13 +2364,13 @@
         <v>193962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>538</v>
@@ -2391,13 +2379,13 @@
         <v>386556</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2453,13 @@
         <v>21548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2480,13 +2468,13 @@
         <v>22051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2495,13 +2483,13 @@
         <v>43599</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2504,13 @@
         <v>659156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>927</v>
@@ -2629,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA4206-DE26-414F-BA8D-174D34F9ABA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D99F2-C209-4052-9B33-54B051BE1EE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,13 +2771,13 @@
         <v>3004</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2792,10 @@
         <v>22547</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2819,10 +2807,10 @@
         <v>18948</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2834,13 +2822,13 @@
         <v>41495</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2896,13 @@
         <v>5252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2923,13 +2911,13 @@
         <v>2660</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2938,13 +2926,13 @@
         <v>7912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2947,13 @@
         <v>113173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -2974,13 +2962,13 @@
         <v>109711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -2992,10 +2980,10 @@
         <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3051,13 @@
         <v>3695</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3078,13 +3066,13 @@
         <v>5095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3093,13 +3081,13 @@
         <v>8791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3102,13 @@
         <v>207774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>287</v>
@@ -3129,13 +3117,13 @@
         <v>185749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>587</v>
@@ -3144,13 +3132,13 @@
         <v>393522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3194,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3218,13 +3206,13 @@
         <v>2489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3233,13 +3221,13 @@
         <v>2944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3248,13 +3236,13 @@
         <v>5433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3257,13 @@
         <v>149804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3284,13 +3272,13 @@
         <v>141714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -3299,13 +3287,13 @@
         <v>291518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3349,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3361,13 @@
         <v>4527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3388,13 +3376,13 @@
         <v>8407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3403,13 +3391,13 @@
         <v>12934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3412,13 @@
         <v>191739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -3439,13 +3427,13 @@
         <v>185140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -3454,13 +3442,13 @@
         <v>376879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3516,13 @@
         <v>17120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3543,13 +3531,13 @@
         <v>20955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3558,13 +3546,13 @@
         <v>38075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3567,13 @@
         <v>685036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>924</v>
@@ -3594,13 +3582,13 @@
         <v>641261</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>1903</v>
@@ -3609,13 +3597,13 @@
         <v>1326297</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113A76C-49DB-427F-9D5C-1237D00B0D2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB07A00F-808B-4EEB-9780-EB8B650DF185}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3822,7 +3810,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3831,13 +3819,13 @@
         <v>2799</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3846,13 +3834,13 @@
         <v>2799</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3858,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3882,13 +3870,13 @@
         <v>18684</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3897,13 +3885,13 @@
         <v>41463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3959,13 @@
         <v>3921</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3986,13 +3974,13 @@
         <v>3084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4001,13 +3989,13 @@
         <v>7004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4010,13 @@
         <v>112410</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -4037,13 +4025,13 @@
         <v>100103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>297</v>
@@ -4052,13 +4040,13 @@
         <v>212513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4114,13 @@
         <v>2814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4141,13 +4129,13 @@
         <v>4246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4156,13 +4144,13 @@
         <v>7060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4165,13 @@
         <v>207863</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -4192,13 +4180,13 @@
         <v>189072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4207,13 +4195,13 @@
         <v>396935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4257,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4284,10 +4272,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4296,13 +4284,13 @@
         <v>3777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4311,13 +4299,13 @@
         <v>5687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,10 +4323,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -4347,13 +4335,13 @@
         <v>144390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>473</v>
@@ -4362,13 +4350,13 @@
         <v>302907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4412,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4436,13 +4424,13 @@
         <v>2805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4451,13 +4439,13 @@
         <v>4686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4466,13 +4454,13 @@
         <v>7491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4475,13 @@
         <v>187876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -4502,13 +4490,13 @@
         <v>187797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>518</v>
@@ -4517,13 +4505,13 @@
         <v>375672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4579,13 @@
         <v>11449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4606,13 +4594,13 @@
         <v>18592</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -4621,13 +4609,13 @@
         <v>30040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4630,13 @@
         <v>689446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>961</v>
@@ -4657,13 +4645,13 @@
         <v>640045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>1945</v>
@@ -4672,13 +4660,13 @@
         <v>1329492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B39295-8877-4777-9792-8E2322888787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752E875E-2337-47F2-A3C3-849F75874826}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4772,7 +4760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4885,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4915,7 +4903,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4921,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4963,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5034,13 +5022,13 @@
         <v>3037</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5055,7 +5043,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5064,13 +5052,13 @@
         <v>3037</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5073,13 @@
         <v>109355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>162</v>
@@ -5103,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -5115,13 +5103,13 @@
         <v>211004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5177,13 @@
         <v>6462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5204,13 +5192,13 @@
         <v>5067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5219,13 +5207,13 @@
         <v>11529</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5228,13 @@
         <v>237976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>265</v>
@@ -5255,13 +5243,13 @@
         <v>183749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>585</v>
@@ -5270,13 +5258,13 @@
         <v>421725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,7 +5320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5344,13 +5332,13 @@
         <v>3292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5359,13 +5347,13 @@
         <v>1567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5374,13 +5362,13 @@
         <v>4859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5383,13 @@
         <v>168365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -5410,13 +5398,13 @@
         <v>164714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>436</v>
@@ -5425,13 +5413,13 @@
         <v>333079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,7 +5475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5499,13 +5487,13 @@
         <v>3486</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5514,13 +5502,13 @@
         <v>1242</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5529,13 +5517,13 @@
         <v>4728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5538,13 @@
         <v>168459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -5565,10 +5553,10 @@
         <v>168805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -5580,13 +5568,13 @@
         <v>337264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5642,13 @@
         <v>16277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5669,13 +5657,13 @@
         <v>7876</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -5684,13 +5672,13 @@
         <v>24153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5693,13 @@
         <v>695586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>910</v>
@@ -5720,13 +5708,13 @@
         <v>635704</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>1834</v>
@@ -5735,13 +5723,13 @@
         <v>1331289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2004-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2017E64F-3084-46D1-AA8E-A9776FB51AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CABB85-4DA5-4957-8F23-DAFF86EBFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E12E9EA4-5094-4E74-9C0D-7F6B6C5632F1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F06F65B-D90E-4800-9C78-DBCEADDD3ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="368">
-  <si>
-    <t>Menores según si le sangran las encias en 2007 (Tasa respuesta: 94,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
+  <si>
+    <t>Menores según si le sangran las encías en 2007 (Tasa respuesta: 94,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1081 +68,976 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2012 (Tasa respuesta: 93,14%)</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Menores según si le sangran las encías en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2012 (Tasa respuesta: 93,14%)</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Menores según si le sangran las encias en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B8061A-8F1D-412F-890B-684512B46AD4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD988E-030F-4CA4-9B5C-ABDBB144E0B1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1672,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>525</v>
+        <v>4502</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1687,85 +1582,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5195</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>525</v>
+        <v>9698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>181</v>
+      </c>
+      <c r="D5" s="7">
+        <v>124504</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>203</v>
+      </c>
+      <c r="I5" s="7">
+        <v>137715</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>384</v>
+      </c>
+      <c r="N5" s="7">
+        <v>262218</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
-        <v>21723</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22010</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>56</v>
-      </c>
-      <c r="N5" s="7">
-        <v>43733</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,153 +1669,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>22248</v>
+        <v>129006</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>142910</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>44258</v>
+        <v>271916</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>4671</v>
+        <v>8411</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>4502</v>
+        <v>7369</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>9173</v>
+        <v>15780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="D8" s="7">
-        <v>115991</v>
+        <v>177373</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="I8" s="7">
-        <v>102494</v>
+        <v>196180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>582</v>
       </c>
       <c r="N8" s="7">
-        <v>218485</v>
+        <v>373554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,153 +1824,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="D9" s="7">
-        <v>120662</v>
+        <v>185784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>106996</v>
+        <v>203549</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>343</v>
+        <v>606</v>
       </c>
       <c r="N9" s="7">
-        <v>227658</v>
+        <v>389334</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>7369</v>
+        <v>4935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>8411</v>
+        <v>4440</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>15780</v>
+        <v>9376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>196180</v>
+        <v>125273</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>177373</v>
+        <v>132666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>582</v>
+        <v>413</v>
       </c>
       <c r="N11" s="7">
-        <v>373554</v>
+        <v>257938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,153 +1979,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="D12" s="7">
-        <v>203549</v>
+        <v>130208</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="I12" s="7">
-        <v>185784</v>
+        <v>137106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>606</v>
+        <v>428</v>
       </c>
       <c r="N12" s="7">
-        <v>389334</v>
+        <v>267314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4440</v>
+        <v>4202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>4935</v>
+        <v>4544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>9376</v>
+        <v>8746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>132666</v>
+        <v>193962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="I14" s="7">
-        <v>125273</v>
+        <v>192595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="M14" s="7">
-        <v>413</v>
+        <v>538</v>
       </c>
       <c r="N14" s="7">
-        <v>257938</v>
+        <v>386556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,63 +2134,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>137106</v>
+        <v>198164</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>130208</v>
+        <v>197139</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="N15" s="7">
-        <v>267314</v>
+        <v>395302</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>4544</v>
+        <v>22051</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2307,10 +2202,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>4202</v>
+        <v>21548</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2322,10 +2217,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>8746</v>
+        <v>43599</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2340,13 +2235,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>284</v>
+        <v>927</v>
       </c>
       <c r="D17" s="7">
-        <v>192595</v>
+        <v>621111</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2358,10 +2253,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>254</v>
+        <v>990</v>
       </c>
       <c r="I17" s="7">
-        <v>193962</v>
+        <v>659156</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2373,10 +2268,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>538</v>
+        <v>1917</v>
       </c>
       <c r="N17" s="7">
-        <v>386556</v>
+        <v>1280267</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2394,217 +2289,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>960</v>
       </c>
       <c r="D18" s="7">
-        <v>197139</v>
+        <v>643162</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>1023</v>
       </c>
       <c r="I18" s="7">
-        <v>198164</v>
+        <v>680704</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>549</v>
+        <v>1983</v>
       </c>
       <c r="N18" s="7">
-        <v>395302</v>
+        <v>1323866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>33</v>
-      </c>
-      <c r="D19" s="7">
-        <v>21548</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>33</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22051</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>66</v>
-      </c>
-      <c r="N19" s="7">
-        <v>43599</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>990</v>
-      </c>
-      <c r="D20" s="7">
-        <v>659156</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="7">
-        <v>927</v>
-      </c>
-      <c r="I20" s="7">
-        <v>621111</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1280267</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1023</v>
-      </c>
-      <c r="D21" s="7">
-        <v>680704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>960</v>
-      </c>
-      <c r="I21" s="7">
-        <v>643162</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1983</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1323866</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2617,8 +2356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D99F2-C209-4052-9B33-54B051BE1EE0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649FDEA-8A33-4659-83A2-14D387ACD753}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2634,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,100 +2474,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1155</v>
+        <v>4509</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>1849</v>
+        <v>6408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>3004</v>
+        <v>10917</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="D5" s="7">
-        <v>22547</v>
+        <v>128659</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>18948</v>
+        <v>135719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="N5" s="7">
-        <v>41495</v>
+        <v>264378</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,153 +2576,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="D6" s="7">
-        <v>23702</v>
+        <v>133168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7">
-        <v>20797</v>
+        <v>142127</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>375</v>
       </c>
       <c r="N6" s="7">
-        <v>44499</v>
+        <v>275295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5252</v>
+        <v>5095</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2660</v>
+        <v>3695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>7912</v>
+        <v>8791</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="D8" s="7">
-        <v>113173</v>
+        <v>185749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="I8" s="7">
-        <v>109711</v>
+        <v>207774</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
-        <v>314</v>
+        <v>587</v>
       </c>
       <c r="N8" s="7">
-        <v>222884</v>
+        <v>393522</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,153 +2731,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="D9" s="7">
-        <v>118425</v>
+        <v>190844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="I9" s="7">
-        <v>112371</v>
+        <v>211469</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>325</v>
+        <v>601</v>
       </c>
       <c r="N9" s="7">
-        <v>230796</v>
+        <v>402313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3695</v>
+        <v>2944</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2489</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5433</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5095</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="7">
-        <v>14</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8791</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>207774</v>
+        <v>141714</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="7">
+        <v>233</v>
+      </c>
+      <c r="I11" s="7">
+        <v>149804</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>454</v>
+      </c>
+      <c r="N11" s="7">
+        <v>291518</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="7">
-        <v>287</v>
-      </c>
-      <c r="I11" s="7">
-        <v>185749</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M11" s="7">
-        <v>587</v>
-      </c>
-      <c r="N11" s="7">
-        <v>393522</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,153 +2886,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>211469</v>
+        <v>144658</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>190844</v>
+        <v>152293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>601</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>402313</v>
+        <v>296951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>2489</v>
+        <v>8407</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4527</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>12934</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2944</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5433</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>149804</v>
+        <v>185140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="7">
+        <v>260</v>
+      </c>
+      <c r="I14" s="7">
+        <v>191739</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>501</v>
+      </c>
+      <c r="N14" s="7">
+        <v>376879</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="7">
-        <v>221</v>
-      </c>
-      <c r="I14" s="7">
-        <v>141714</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M14" s="7">
-        <v>454</v>
-      </c>
-      <c r="N14" s="7">
-        <v>291518</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,153 +3041,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>152293</v>
+        <v>193547</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="I15" s="7">
-        <v>144658</v>
+        <v>196266</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="N15" s="7">
-        <v>296951</v>
+        <v>389813</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>4527</v>
+        <v>20955</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17120</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38075</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8407</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="7">
-        <v>17</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12934</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>260</v>
+        <v>924</v>
       </c>
       <c r="D17" s="7">
-        <v>191739</v>
+        <v>641262</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
+        <v>979</v>
+      </c>
+      <c r="I17" s="7">
+        <v>685036</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1903</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1326297</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="7">
-        <v>241</v>
-      </c>
-      <c r="I17" s="7">
-        <v>185140</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="7">
-        <v>501</v>
-      </c>
-      <c r="N17" s="7">
-        <v>376879</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,217 +3196,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>266</v>
+        <v>953</v>
       </c>
       <c r="D18" s="7">
-        <v>196266</v>
+        <v>662217</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>193547</v>
+        <v>702156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>518</v>
+        <v>1955</v>
       </c>
       <c r="N18" s="7">
-        <v>389813</v>
+        <v>1364372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17120</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="7">
-        <v>29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20955</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" s="7">
-        <v>52</v>
-      </c>
-      <c r="N19" s="7">
-        <v>38075</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>979</v>
-      </c>
-      <c r="D20" s="7">
-        <v>685036</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="7">
-        <v>924</v>
-      </c>
-      <c r="I20" s="7">
-        <v>641261</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1903</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1326297</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1002</v>
-      </c>
-      <c r="D21" s="7">
-        <v>702156</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>953</v>
-      </c>
-      <c r="I21" s="7">
-        <v>662216</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1955</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1364372</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3680,8 +3263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB07A00F-808B-4EEB-9780-EB8B650DF185}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D924C4ED-7AC9-4569-AB6D-38A864C9AA8E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3697,7 +3280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3798,100 +3381,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5883</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3921</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2799</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
       <c r="N4" s="7">
-        <v>2799</v>
+        <v>9803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>22779</v>
+        <v>118786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>18684</v>
+        <v>135189</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>41463</v>
+        <v>253976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,153 +3483,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7">
-        <v>22779</v>
+        <v>124669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>21483</v>
+        <v>139110</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="N6" s="7">
-        <v>44262</v>
+        <v>263779</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3921</v>
+        <v>4246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>3084</v>
+        <v>2814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>7004</v>
+        <v>7060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="D8" s="7">
-        <v>112410</v>
+        <v>189072</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="I8" s="7">
-        <v>100103</v>
+        <v>207863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
-        <v>297</v>
+        <v>610</v>
       </c>
       <c r="N8" s="7">
-        <v>212513</v>
+        <v>396935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,153 +3638,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7">
-        <v>116331</v>
+        <v>193318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>103187</v>
+        <v>210677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>306</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>219517</v>
+        <v>403995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>2814</v>
+        <v>3777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>4246</v>
+        <v>1909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>7060</v>
+        <v>5687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7">
-        <v>207863</v>
+        <v>144390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>189072</v>
+        <v>158518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>610</v>
+        <v>473</v>
       </c>
       <c r="N11" s="7">
-        <v>396935</v>
+        <v>302907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,153 +3793,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>210677</v>
+        <v>148167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>193318</v>
+        <v>160427</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>482</v>
       </c>
       <c r="N12" s="7">
-        <v>403995</v>
+        <v>308594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>1909</v>
+        <v>4686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>3777</v>
+        <v>2805</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>5687</v>
+        <v>7491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>158518</v>
+        <v>187797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="I14" s="7">
-        <v>144390</v>
+        <v>187876</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="N14" s="7">
-        <v>302907</v>
+        <v>375672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,153 +3948,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>160427</v>
+        <v>192483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>148167</v>
+        <v>190681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>308594</v>
+        <v>383163</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>2805</v>
+        <v>18592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>4686</v>
+        <v>11449</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>7491</v>
+        <v>30040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>264</v>
+        <v>961</v>
       </c>
       <c r="D17" s="7">
-        <v>187876</v>
+        <v>640045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
-        <v>254</v>
+        <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>187797</v>
+        <v>689446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
-        <v>518</v>
+        <v>1945</v>
       </c>
       <c r="N17" s="7">
-        <v>375672</v>
+        <v>1329492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,217 +4103,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>988</v>
       </c>
       <c r="D18" s="7">
-        <v>190681</v>
+        <v>658637</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>192483</v>
+        <v>700895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>529</v>
+        <v>1988</v>
       </c>
       <c r="N18" s="7">
-        <v>383163</v>
+        <v>1359532</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11449</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18592</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>30040</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>984</v>
-      </c>
-      <c r="D20" s="7">
-        <v>689446</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="7">
-        <v>961</v>
-      </c>
-      <c r="I20" s="7">
-        <v>640045</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1945</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1329492</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="7">
-        <v>700895</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>988</v>
-      </c>
-      <c r="I21" s="7">
-        <v>658637</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1359532</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4743,8 +4170,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752E875E-2337-47F2-A3C3-849F75874826}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D77F908-6687-455F-A7E9-829BBAAE27F6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4760,7 +4187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4867,94 +4294,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3292</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D5" s="7">
-        <v>11430</v>
+        <v>115070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="I5" s="7">
-        <v>16787</v>
+        <v>133465</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="N5" s="7">
-        <v>28217</v>
+        <v>248535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,153 +4390,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7">
-        <v>11430</v>
+        <v>115070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>136757</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>28217</v>
+        <v>251827</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3037</v>
+        <v>4921</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6837</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>3037</v>
+        <v>11758</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="D8" s="7">
-        <v>109355</v>
+        <v>181977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>101649</v>
+        <v>242305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
-        <v>305</v>
+        <v>585</v>
       </c>
       <c r="N8" s="7">
-        <v>211004</v>
+        <v>424282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,153 +4545,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D9" s="7">
-        <v>112392</v>
+        <v>186898</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="I9" s="7">
-        <v>101649</v>
+        <v>249142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>600</v>
       </c>
       <c r="N9" s="7">
-        <v>214041</v>
+        <v>436040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1529</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3378</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>6462</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5067</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M10" s="7">
-        <v>15</v>
-      </c>
       <c r="N10" s="7">
-        <v>11529</v>
+        <v>4907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>237976</v>
+        <v>186458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>183749</v>
+        <v>180325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
-        <v>585</v>
+        <v>436</v>
       </c>
       <c r="N11" s="7">
-        <v>421725</v>
+        <v>366783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,153 +4700,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>244438</v>
+        <v>187987</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>188816</v>
+        <v>183703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="N12" s="7">
-        <v>433254</v>
+        <v>371690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>3292</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>1567</v>
+        <v>3550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>4859</v>
+        <v>4750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>168365</v>
+        <v>164916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>164714</v>
+        <v>174313</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="N14" s="7">
-        <v>333079</v>
+        <v>339229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,153 +4855,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>171657</v>
+        <v>166116</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>166281</v>
+        <v>177863</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="N15" s="7">
-        <v>337938</v>
+        <v>343979</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>3486</v>
+        <v>7651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>1242</v>
+        <v>17057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>4728</v>
+        <v>24707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>228</v>
+        <v>910</v>
       </c>
       <c r="D17" s="7">
-        <v>168459</v>
+        <v>648420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
-        <v>235</v>
+        <v>924</v>
       </c>
       <c r="I17" s="7">
-        <v>168805</v>
+        <v>730408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
-        <v>463</v>
+        <v>1834</v>
       </c>
       <c r="N17" s="7">
-        <v>337264</v>
+        <v>1378829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,217 +5010,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>233</v>
+        <v>921</v>
       </c>
       <c r="D18" s="7">
-        <v>171945</v>
+        <v>656071</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>236</v>
+        <v>946</v>
       </c>
       <c r="I18" s="7">
-        <v>170047</v>
+        <v>747465</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>341992</v>
+        <v>1403536</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16277</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7876</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M19" s="7">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24153</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>924</v>
-      </c>
-      <c r="D20" s="7">
-        <v>695586</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="7">
-        <v>910</v>
-      </c>
-      <c r="I20" s="7">
-        <v>635704</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1834</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1331289</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>946</v>
-      </c>
-      <c r="D21" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>921</v>
-      </c>
-      <c r="I21" s="7">
-        <v>643580</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1355442</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
